--- a/fund_statement_extractor/output/Summary.xlsx
+++ b/fund_statement_extractor/output/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinjonany/Desktop/python/data-science/projects/RAG Techniques/FLARE-Implementation/fund_statement_extractor/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA6F4B5-B213-7144-B4B7-E992646945E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A295407-779B-3844-B183-9A44CEE5706D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B84C0C0F-CDB1-2247-AD7B-5B4868804A3B}"/>
   </bookViews>

--- a/fund_statement_extractor/output/Summary.xlsx
+++ b/fund_statement_extractor/output/Summary.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinjonany/Desktop/python/data-science/projects/RAG Techniques/FLARE-Implementation/fund_statement_extractor/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A295407-779B-3844-B183-9A44CEE5706D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B193E27F-1ADA-AA41-8018-CA1E6F123C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B84C0C0F-CDB1-2247-AD7B-5B4868804A3B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{B84C0C0F-CDB1-2247-AD7B-5B4868804A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>OCR</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>12/200</t>
   </si>
 </sst>
 </file>
@@ -298,95 +301,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -413,23 +344,83 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -746,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DF780C-433F-914C-8CB6-A7C4B5FD8C24}">
-  <dimension ref="C8:N26"/>
+  <dimension ref="C8:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" zoomScale="150" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -760,515 +751,509 @@
   <sheetData>
     <row r="8" spans="3:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="3:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="29"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="42"/>
     </row>
     <row r="10" spans="3:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="10" t="s">
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="11"/>
-      <c r="N10" s="7" t="s">
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
+      <c r="N10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="3:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="30" t="s">
+      <c r="E11" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="44"/>
+      <c r="G11" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="45"/>
-      <c r="K11" s="44" t="s">
+      <c r="H11" s="45"/>
+      <c r="I11" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="47"/>
+      <c r="K11" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="45"/>
-      <c r="N11" s="8">
+      <c r="L11" s="47"/>
+      <c r="N11" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="12" spans="3:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="33" t="s">
+      <c r="F12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="46" t="s">
+      <c r="H12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="48" t="s">
+      <c r="J12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9"/>
+      <c r="L12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="36">
-        <v>0</v>
-      </c>
-      <c r="F13" s="36">
-        <v>0</v>
-      </c>
-      <c r="G13" s="37">
-        <v>0</v>
-      </c>
-      <c r="H13" s="38">
-        <v>0</v>
-      </c>
-      <c r="I13" s="49">
-        <v>0</v>
-      </c>
-      <c r="J13" s="50">
+      <c r="D13" s="30"/>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="22">
+        <v>0</v>
+      </c>
+      <c r="J13" s="23">
         <v>2</v>
       </c>
-      <c r="K13" s="51">
-        <v>0</v>
-      </c>
-      <c r="L13" s="52">
+      <c r="K13" s="24">
+        <v>0</v>
+      </c>
+      <c r="L13" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="36">
+      <c r="D14" s="32"/>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15">
         <v>2</v>
       </c>
-      <c r="F14" s="36">
-        <v>0</v>
-      </c>
-      <c r="G14" s="39">
+      <c r="H14" s="16">
+        <v>0</v>
+      </c>
+      <c r="I14" s="22">
         <v>2</v>
       </c>
-      <c r="H14" s="40">
-        <v>0</v>
-      </c>
-      <c r="I14" s="49">
+      <c r="J14" s="23">
+        <v>0</v>
+      </c>
+      <c r="K14" s="26">
         <v>2</v>
       </c>
-      <c r="J14" s="50">
-        <v>0</v>
-      </c>
-      <c r="K14" s="53">
+      <c r="L14" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C15" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
         <v>2</v>
       </c>
-      <c r="L14" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="36">
-        <v>0</v>
-      </c>
-      <c r="F15" s="36">
+      <c r="G15" s="15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="16">
         <v>2</v>
       </c>
-      <c r="G15" s="39">
-        <v>0</v>
-      </c>
-      <c r="H15" s="40">
+      <c r="I15" s="22">
+        <v>0</v>
+      </c>
+      <c r="J15" s="23">
         <v>2</v>
       </c>
-      <c r="I15" s="49">
-        <v>0</v>
-      </c>
-      <c r="J15" s="50">
+      <c r="K15" s="26">
+        <v>1</v>
+      </c>
+      <c r="L15" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C16" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0</v>
+      </c>
+      <c r="H16" s="16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="22">
+        <v>0</v>
+      </c>
+      <c r="J16" s="23">
+        <v>1</v>
+      </c>
+      <c r="K16" s="26">
+        <v>0</v>
+      </c>
+      <c r="L16" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C17" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0</v>
+      </c>
+      <c r="I17" s="22">
+        <v>1</v>
+      </c>
+      <c r="J17" s="23">
+        <v>1</v>
+      </c>
+      <c r="K17" s="26">
+        <v>0</v>
+      </c>
+      <c r="L17" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C18" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
+      <c r="H18" s="16">
+        <v>0</v>
+      </c>
+      <c r="I18" s="22">
+        <v>1</v>
+      </c>
+      <c r="J18" s="23">
+        <v>0</v>
+      </c>
+      <c r="K18" s="26">
+        <v>1</v>
+      </c>
+      <c r="L18" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C19" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1</v>
+      </c>
+      <c r="G19" s="15">
+        <v>6</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0</v>
+      </c>
+      <c r="I19" s="22">
+        <v>1</v>
+      </c>
+      <c r="J19" s="23">
+        <v>3</v>
+      </c>
+      <c r="K19" s="26">
+        <v>5</v>
+      </c>
+      <c r="L19" s="23">
         <v>2</v>
       </c>
-      <c r="K15" s="53">
-        <v>0</v>
-      </c>
-      <c r="L15" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="36">
-        <v>0</v>
-      </c>
-      <c r="F16" s="36">
-        <v>0</v>
-      </c>
-      <c r="G16" s="39">
-        <v>0</v>
-      </c>
-      <c r="H16" s="40">
-        <v>0</v>
-      </c>
-      <c r="I16" s="49">
-        <v>0</v>
-      </c>
-      <c r="J16" s="50">
-        <v>1</v>
-      </c>
-      <c r="K16" s="53">
-        <v>0</v>
-      </c>
-      <c r="L16" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="36">
-        <v>0</v>
-      </c>
-      <c r="F17" s="36">
-        <v>0</v>
-      </c>
-      <c r="G17" s="39">
-        <v>0</v>
-      </c>
-      <c r="H17" s="40">
-        <v>0</v>
-      </c>
-      <c r="I17" s="49">
-        <v>1</v>
-      </c>
-      <c r="J17" s="50">
-        <v>1</v>
-      </c>
-      <c r="K17" s="53">
-        <v>0</v>
-      </c>
-      <c r="L17" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C18" s="3" t="s">
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C20" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12">
+        <v>1</v>
+      </c>
+      <c r="G20" s="15">
+        <v>3</v>
+      </c>
+      <c r="H20" s="16">
+        <v>1</v>
+      </c>
+      <c r="I20" s="22">
+        <v>1</v>
+      </c>
+      <c r="J20" s="23">
+        <v>3</v>
+      </c>
+      <c r="K20" s="26">
+        <v>3</v>
+      </c>
+      <c r="L20" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C21" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0</v>
+      </c>
+      <c r="G21" s="15">
+        <v>1</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0</v>
+      </c>
+      <c r="I21" s="22">
+        <v>0</v>
+      </c>
+      <c r="J21" s="23">
+        <v>1</v>
+      </c>
+      <c r="K21" s="26">
+        <v>1</v>
+      </c>
+      <c r="L21" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C22" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22" s="15">
+        <v>1</v>
+      </c>
+      <c r="H22" s="16">
+        <v>0</v>
+      </c>
+      <c r="I22" s="22">
+        <v>0</v>
+      </c>
+      <c r="J22" s="23">
+        <v>2</v>
+      </c>
+      <c r="K22" s="26">
+        <v>1</v>
+      </c>
+      <c r="L22" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="52"/>
+      <c r="E23" s="12">
+        <v>0</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0</v>
+      </c>
+      <c r="G23" s="17">
+        <v>1</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0</v>
+      </c>
+      <c r="I23" s="22">
+        <v>0</v>
+      </c>
+      <c r="J23" s="23">
+        <v>0</v>
+      </c>
+      <c r="K23" s="27">
+        <v>1</v>
+      </c>
+      <c r="L23" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="36"/>
+      <c r="E24" s="1">
+        <f t="shared" ref="E24:L24" si="0">SUM(E13:E23)</f>
+        <v>3</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="36">
-        <v>0</v>
-      </c>
-      <c r="F18" s="36">
-        <v>0</v>
-      </c>
-      <c r="G18" s="39">
-        <v>0</v>
-      </c>
-      <c r="H18" s="40">
-        <v>0</v>
-      </c>
-      <c r="I18" s="49">
-        <v>1</v>
-      </c>
-      <c r="J18" s="50">
-        <v>0</v>
-      </c>
-      <c r="K18" s="53">
-        <v>1</v>
-      </c>
-      <c r="L18" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="36">
+      <c r="H24" s="2">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F19" s="36">
-        <v>1</v>
-      </c>
-      <c r="G19" s="39">
-        <v>5</v>
-      </c>
-      <c r="H19" s="40">
-        <v>0</v>
-      </c>
-      <c r="I19" s="49">
-        <v>1</v>
-      </c>
-      <c r="J19" s="50">
-        <v>3</v>
-      </c>
-      <c r="K19" s="53">
-        <v>4</v>
-      </c>
-      <c r="L19" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="36">
-        <v>2</v>
-      </c>
-      <c r="F20" s="36">
-        <v>1</v>
-      </c>
-      <c r="G20" s="39">
-        <v>3</v>
-      </c>
-      <c r="H20" s="40">
-        <v>1</v>
-      </c>
-      <c r="I20" s="49">
-        <v>1</v>
-      </c>
-      <c r="J20" s="50">
-        <v>3</v>
-      </c>
-      <c r="K20" s="53">
-        <v>3</v>
-      </c>
-      <c r="L20" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="36">
-        <v>0</v>
-      </c>
-      <c r="F21" s="36">
-        <v>0</v>
-      </c>
-      <c r="G21" s="39">
-        <v>0</v>
-      </c>
-      <c r="H21" s="40">
-        <v>0</v>
-      </c>
-      <c r="I21" s="49">
-        <v>0</v>
-      </c>
-      <c r="J21" s="50">
-        <v>1</v>
-      </c>
-      <c r="K21" s="53">
-        <v>0</v>
-      </c>
-      <c r="L21" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="36">
-        <v>0</v>
-      </c>
-      <c r="F22" s="36">
-        <v>0</v>
-      </c>
-      <c r="G22" s="39">
-        <v>0</v>
-      </c>
-      <c r="H22" s="40">
-        <v>0</v>
-      </c>
-      <c r="I22" s="49">
-        <v>0</v>
-      </c>
-      <c r="J22" s="50">
-        <v>2</v>
-      </c>
-      <c r="K22" s="53">
-        <v>0</v>
-      </c>
-      <c r="L22" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="36">
-        <v>0</v>
-      </c>
-      <c r="F23" s="36">
-        <v>0</v>
-      </c>
-      <c r="G23" s="41">
-        <v>1</v>
-      </c>
-      <c r="H23" s="42">
-        <v>0</v>
-      </c>
-      <c r="I23" s="49">
-        <v>0</v>
-      </c>
-      <c r="J23" s="50">
-        <v>0</v>
-      </c>
-      <c r="K23" s="54">
-        <v>1</v>
-      </c>
-      <c r="L23" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="5">
-        <f>SUM(E13:E23)</f>
+      <c r="I24" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="13">
-        <f>SUM(F13:F23)</f>
-        <v>4</v>
-      </c>
-      <c r="G24" s="5">
-        <f>SUM(G13:G23)</f>
-        <v>11</v>
-      </c>
-      <c r="H24" s="6">
-        <f>SUM(H13:H23)</f>
-        <v>3</v>
-      </c>
-      <c r="I24" s="5">
-        <f>SUM(I13:I23)</f>
-        <v>6</v>
-      </c>
-      <c r="J24" s="6">
-        <f>SUM(J13:J23)</f>
-        <v>15</v>
-      </c>
-      <c r="K24" s="13">
-        <f>SUM(K13:K23)</f>
-        <v>11</v>
-      </c>
-      <c r="L24" s="6">
-        <f>SUM(L13:L23)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="14">
+      <c r="E25" s="35">
         <f>((N11-E24)/N11) * 100</f>
-        <v>96.5</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="14">
+        <v>98.5</v>
+      </c>
+      <c r="F25" s="36"/>
+      <c r="G25" s="35">
         <f>((N11-G24)/N11 * 100)</f>
-        <v>94.5</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="17">
+        <v>92.5</v>
+      </c>
+      <c r="H25" s="36"/>
+      <c r="I25" s="49">
         <f>((N11-I24)/N11) * 100</f>
         <v>97</v>
       </c>
-      <c r="J25" s="16"/>
-      <c r="K25" s="14">
+      <c r="J25" s="50"/>
+      <c r="K25" s="35">
         <f>((N11-K24)/N11 * 100)</f>
-        <v>94.5</v>
-      </c>
-      <c r="L25" s="15"/>
-    </row>
-    <row r="26" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="26"/>
-      <c r="D26" s="27" t="s">
+        <v>92.5</v>
+      </c>
+      <c r="L25" s="36"/>
+      <c r="Q25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="34"/>
+      <c r="D26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="49">
         <f>((N11-(F24+E24)) / N11)*100</f>
-        <v>94.5</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="19">
+        <v>96.5</v>
+      </c>
+      <c r="F26" s="50"/>
+      <c r="G26" s="35">
         <f>((N11-(H24+G24)) / N11)*100</f>
-        <v>93</v>
-      </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="19">
+        <v>91</v>
+      </c>
+      <c r="H26" s="36"/>
+      <c r="I26" s="35">
         <f>((N11-(J24+I24)) / N11)*100</f>
         <v>89.5</v>
       </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="14">
+      <c r="J26" s="36"/>
+      <c r="K26" s="35">
         <f>((N11-(L24+K24)) / N11)*100</f>
-        <v>89.5</v>
-      </c>
-      <c r="L26" s="15"/>
+        <v>87.5</v>
+      </c>
+      <c r="L26" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="K25:L25"/>
@@ -1288,6 +1273,15 @@
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
